--- a/biology/Botanique/Giuseppe_Giacinto_Moris/Giuseppe_Giacinto_Moris.xlsx
+++ b/biology/Botanique/Giuseppe_Giacinto_Moris/Giuseppe_Giacinto_Moris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Giacinto Moris (parfois francisé en Joseph Hyacinthe Moris ou Joseph Moris), né le 25 avril 1796 à Orbassano, dans le Piémont et mort le 18 avril 1869 (à 72 ans) à Turin, est un botaniste, directeur du Jardin botanique de Turin, et sénateur du royaume de Sardaigne, du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 3 mai 1848, Giuseppe Giacinto Moris est nommé sénateur du royaume de Sardaigne.
 </t>
@@ -542,11 +556,13 @@
           <t>Académies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Giacinto Moris appartient à de nombreuses sociétés savantes du Piémont, puis d'Italie, notamment l'Académie des sciences de Turin et de l'Accademia di Agricoltura di Torino dont il sera le Vice-Président de 1836 à 1838.
 Il est membre de la Société botanique de France.
-Il est élu le 10 avril 1851 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Agrégé[1].
+Il est élu le 10 avril 1851 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Agrégé.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Giuseppe Giacinto Moris, en raison de ses activités, a reçu plusieurs décorations :
 Grand officier de l'ordre des Saints-Maurice-et-Lazare (1er juin 1862), après avoir été fait chevalier puis commandeur(22 novembre 1854) ;
